--- a/docs/deliverable2/Getana_Deliverable_2_TeamMemberReport_3.xlsx
+++ b/docs/deliverable2/Getana_Deliverable_2_TeamMemberReport_3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brodywilliams/Repositories/RaiderNAV/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brodywilliams/Repositories/RaiderNAV/docs/deliverable2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30189FCB-F574-0647-8B97-0E8762591284}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9D691F-B56F-E143-AFA8-41E0ECD8B3AC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arpit" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="22">
   <si>
     <t>Team Member Report – Sprint 1</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Team Member Report – Sprint 3</t>
   </si>
   <si>
-    <t>TDB</t>
-  </si>
-  <si>
     <t>One sheet per team member name for every sprint. Updated for every sprint. Roles are switched for each deliverable.</t>
   </si>
   <si>
@@ -87,6 +84,18 @@
   </si>
   <si>
     <t>Scrum Master, Development Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Product Owner, Development</t>
+  </si>
+  <si>
+    <t>No work completed</t>
+  </si>
+  <si>
+    <t>No issues resolved</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -451,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScale="177" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="173" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -469,7 +478,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -492,24 +501,32 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>6</v>
       </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +561,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -560,7 +577,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -571,10 +588,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -601,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="242" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A2" zoomScale="189" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -619,7 +636,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -646,10 +663,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -694,7 +711,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -710,7 +727,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -721,10 +738,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -769,7 +786,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -796,10 +813,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -826,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScale="175" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -844,7 +861,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -871,10 +888,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">

--- a/docs/deliverable2/Getana_Deliverable_2_TeamMemberReport_3.xlsx
+++ b/docs/deliverable2/Getana_Deliverable_2_TeamMemberReport_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brodywilliams/Repositories/RaiderNAV/docs/deliverable2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9D691F-B56F-E143-AFA8-41E0ECD8B3AC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2375BC3-0504-D34A-B3E4-88585EA601B4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arpit" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
   <si>
     <t>Team Member Report – Sprint 1</t>
   </si>
@@ -96,6 +96,30 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Other classwork/midterms</t>
+  </si>
+  <si>
+    <t>Completed domain model &amp; detailed design document, Created user interface for creating a schedule, adding classes, saving a schedule, recalling a schedule, schedule selection, and detail display.</t>
+  </si>
+  <si>
+    <t>Created user interface for creating a schedule, adding classes, saving a schedule, recalling a schedule, schedule selection, and detail display.</t>
+  </si>
+  <si>
+    <t>Created user interface for creating a schedule, adding classes, saving a schedule, recalling a schedule, schedule selection, and detail display. Updated SRS and UML document. Created GRM and UCM models document.</t>
+  </si>
+  <si>
+    <t>Created GRL and UCM models document, Implemented front-end for route display.</t>
+  </si>
+  <si>
+    <t>Updated daily scrum report, Updated sprint backlog at beginning &amp; end of sprint 3, Updates SRS and UML document, Completed sprint 3 review document, Updated team member report.</t>
+  </si>
+  <si>
+    <t>Busy schedule, other classwork/midterms</t>
+  </si>
+  <si>
+    <t>Still not feeling well at beginning of sprint, Other classwork/midterms</t>
   </si>
 </sst>
 </file>
@@ -460,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="112" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -544,7 +568,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -580,11 +604,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="65" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -598,10 +624,16 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -619,7 +651,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="189" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -655,11 +687,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="65" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -673,10 +707,16 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -693,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScale="193" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="193" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -730,11 +770,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="52" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -748,10 +790,16 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -769,7 +817,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -805,11 +853,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="65" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -823,10 +873,16 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -843,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A3" zoomScale="175" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -880,11 +936,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="26" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -898,10 +956,16 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/docs/deliverable2/Getana_Deliverable_2_TeamMemberReport_3.xlsx
+++ b/docs/deliverable2/Getana_Deliverable_2_TeamMemberReport_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brodywilliams/Repositories/RaiderNAV/docs/deliverable2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2375BC3-0504-D34A-B3E4-88585EA601B4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCB7AA7-8E78-EF4C-8E65-157709B22B88}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16460" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arpit" sheetId="1" r:id="rId1"/>
@@ -107,19 +107,19 @@
     <t>Created user interface for creating a schedule, adding classes, saving a schedule, recalling a schedule, schedule selection, and detail display.</t>
   </si>
   <si>
-    <t>Created user interface for creating a schedule, adding classes, saving a schedule, recalling a schedule, schedule selection, and detail display. Updated SRS and UML document. Created GRM and UCM models document.</t>
-  </si>
-  <si>
-    <t>Created GRL and UCM models document, Implemented front-end for route display.</t>
-  </si>
-  <si>
-    <t>Updated daily scrum report, Updated sprint backlog at beginning &amp; end of sprint 3, Updates SRS and UML document, Completed sprint 3 review document, Updated team member report.</t>
-  </si>
-  <si>
     <t>Busy schedule, other classwork/midterms</t>
   </si>
   <si>
     <t>Still not feeling well at beginning of sprint, Other classwork/midterms</t>
+  </si>
+  <si>
+    <t>Created GRL and UCM models document, Implemented front-end for route display. Created configuration management plan.</t>
+  </si>
+  <si>
+    <t>Created user interface for creating a schedule, adding classes, saving a schedule, recalling a schedule, schedule selection, and detail display. Updated SRS and UML document. Created GRM and UCM models document. Created configuration management plan.</t>
+  </si>
+  <si>
+    <t>Updated daily scrum report, Updated sprint backlog at beginning &amp; end of sprint 3, Updates SRS and UML document, Completed sprint 3 review document, Updated team member report. Created configuration management plan.</t>
   </si>
 </sst>
 </file>
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -604,12 +604,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="65" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="78" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -708,7 +708,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -733,7 +733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="193" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView zoomScale="193" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -791,7 +791,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -817,7 +817,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -853,12 +853,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="65" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="78" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -900,7 +900,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="175" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -936,12 +936,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="39" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
